--- a/xlsx/新闻集团_intext.xlsx
+++ b/xlsx/新闻集团_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>新闻集团</t>
   </si>
@@ -29,13 +29,13 @@
     <t>新闻集团 (1979－2013年)</t>
   </si>
   <si>
-    <t>政策_政策_美國_新闻集团</t>
+    <t>政策_政策_美国_新闻集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E6%96%AF%E8%BE%BE%E5%85%8B</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E4%BC%AF%E7%89%B9%C2%B7%E9%BB%98%E5%A4%9A%E5%85%8B</t>
   </si>
   <si>
-    <t>魯伯特·默多克</t>
+    <t>鲁伯特·默多克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1211_Avenue_of_the_Americas</t>
@@ -95,49 +95,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E6%9F%8F%C2%B7%E6%A2%85%E9%90%B8</t>
   </si>
   <si>
-    <t>魯柏·梅鐸</t>
+    <t>鲁柏·梅铎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E6%A5%AD</t>
   </si>
   <si>
-    <t>出版業</t>
+    <t>出版业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%8D%81%E4%B8%80%E4%B8%96%E7%B4%80%E7%A6%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>二十一世紀福斯</t>
+    <t>二十一世纪福斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E5%A8%9B%E6%A8%82%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>福斯娛樂集團</t>
+    <t>福斯娱乐集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%88%BE%E8%A1%97%E6%97%A5%E5%A0%B1</t>
   </si>
   <si>
-    <t>華爾街日報</t>
+    <t>华尔街日报</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Robert_James_Thomson</t>
@@ -155,33 +155,27 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E5%9F%B7%E8%A1%8C%E5%AE%98</t>
   </si>
   <si>
-    <t>首席執行官</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1</t>
   </si>
   <si>
-    <t>股東</t>
+    <t>股东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/21%E4%B8%96%E7%B4%80%E7%A6%8F%E5%85%8B%E6%96%AF%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>21世紀福克斯公司</t>
+    <t>21世纪福克斯公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%96%AF%E9%81%94%E5%85%8B</t>
   </si>
   <si>
-    <t>納斯達克</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Dow_Jones_Local_Media_Group</t>
   </si>
   <si>
@@ -233,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約郵報</t>
+    <t>纽约邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%8F%80%E6%9F%AF%E6%9E%97%E6%96%AF%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -275,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E5%A0%B1</t>
   </si>
   <si>
-    <t>衛報</t>
+    <t>卫报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E5%A0%B1%E5%B0%8E</t>
   </si>
   <si>
-    <t>好萊塢報導</t>
+    <t>好莱坞报导</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1348,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1380,10 +1374,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1409,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>3</v>
@@ -1438,10 +1432,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1467,10 +1461,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1496,10 +1490,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1525,10 +1519,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1554,10 +1548,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1583,10 +1577,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -1612,10 +1606,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1641,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1670,10 +1664,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1699,10 +1693,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1728,10 +1722,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1757,10 +1751,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1786,10 +1780,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1815,10 +1809,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -1844,10 +1838,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1873,10 +1867,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>3</v>
@@ -1902,10 +1896,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1931,10 +1925,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -1960,10 +1954,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -1989,10 +1983,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
